--- a/biology/Botanique/Salix_appendiculata/Salix_appendiculata.xlsx
+++ b/biology/Botanique/Salix_appendiculata/Salix_appendiculata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix appendiculata, le saule appendiculé ou encore le saule à grandes feuilles, est une espèce de plantes à fleurs de la famille des Salicaceae. C'est un saule que l'on trouve en France, Italie, Europe de l'Est, Europe centrale et dans les Balkans. 
 </t>
@@ -511,9 +523,11 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Salix grandifolia (Ser.)[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Salix grandifolia (Ser.).</t>
         </is>
       </c>
     </row>
@@ -541,12 +555,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arbuste mesure de 2 à 6 m de haut et présente une couronne arrondie. Les branches sont gris vert, brun foncé ou brun rouge, 
-Le pétiole fait 1 cm de long pour un limbe allant de 4 à 18 cm en longueur et de 3 à 5 cm de large[1].
-Les fleurs sont des chatons de 2 à 3 cm de long qui fleurissent d'avril à mai, en même temps que la pousse des feuilles[2].
-Chromosomes : 2n = 38[3].
+Le pétiole fait 1 cm de long pour un limbe allant de 4 à 18 cm en longueur et de 3 à 5 cm de large.
+Les fleurs sont des chatons de 2 à 3 cm de long qui fleurissent d'avril à mai, en même temps que la pousse des feuilles.
+Chromosomes : 2n = 38.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce pousse jusqu'à 1 900 m d'altitude[4],[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce pousse jusqu'à 1 900 m d'altitude,.
 </t>
         </is>
       </c>
